--- a/src/main/resources/static/excel/学校信息导入模板.xlsx
+++ b/src/main/resources/static/excel/学校信息导入模板.xlsx
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
-  <si>
-    <t>学校名称</t>
-  </si>
-  <si>
-    <t>学年</t>
-  </si>
-  <si>
-    <t>性质</t>
-  </si>
-  <si>
-    <t>隶属关系</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="59">
   <si>
     <t>主要领导姓名</t>
   </si>
@@ -48,12 +36,6 @@
     <t>具体负责人电话</t>
   </si>
   <si>
-    <t>校医(专职)人数</t>
-  </si>
-  <si>
-    <t>校医(兼职)人数</t>
-  </si>
-  <si>
     <t>保健老师(专职)人数</t>
   </si>
   <si>
@@ -66,24 +48,6 @@
     <t>地址</t>
   </si>
   <si>
-    <t>学段</t>
-  </si>
-  <si>
-    <t>年级</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
-  <si>
-    <t>年级学生人数</t>
-  </si>
-  <si>
-    <t>寄宿生人数</t>
-  </si>
-  <si>
-    <t>教职员工人数</t>
-  </si>
-  <si>
     <t>昆山张浦幼儿园</t>
   </si>
   <si>
@@ -96,18 +60,6 @@
     <t>陆家镇</t>
   </si>
   <si>
-    <t>张三1</t>
-  </si>
-  <si>
-    <t>李四1</t>
-  </si>
-  <si>
-    <t>王五1</t>
-  </si>
-  <si>
-    <t>昆山锦溪镇</t>
-  </si>
-  <si>
     <t>托班</t>
   </si>
   <si>
@@ -129,18 +81,6 @@
     <t>小学</t>
   </si>
   <si>
-    <t>张三2</t>
-  </si>
-  <si>
-    <t>李四2</t>
-  </si>
-  <si>
-    <t>王五2</t>
-  </si>
-  <si>
-    <t>昆山玉山镇</t>
-  </si>
-  <si>
     <t>一年级</t>
   </si>
   <si>
@@ -174,18 +114,6 @@
     <t>周市镇</t>
   </si>
   <si>
-    <t>张三3</t>
-  </si>
-  <si>
-    <t>李四3</t>
-  </si>
-  <si>
-    <t>王五3</t>
-  </si>
-  <si>
-    <t>昆山周市镇</t>
-  </si>
-  <si>
     <t>昆山第四中学</t>
   </si>
   <si>
@@ -198,46 +126,394 @@
     <t>花桥镇</t>
   </si>
   <si>
-    <t>张三4</t>
-  </si>
-  <si>
-    <t>李四4</t>
-  </si>
-  <si>
-    <t>王五4</t>
-  </si>
-  <si>
-    <t>业务管理区域</t>
+    <t>高新区</t>
+  </si>
+  <si>
+    <t>昆山市陆家社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>昆山市花桥社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>昆山市周市社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>高新区公办</t>
+  </si>
+  <si>
+    <t>昆山市亭林社区卫生服务中心</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校医</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人数</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>行政区域</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校名称</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>高新区</t>
-  </si>
-  <si>
-    <t>昆山市陆家社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>昆山市花桥社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>昆山市周市社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>高新区公办</t>
-  </si>
-  <si>
-    <t>昆山市亭林社区卫生服务中心</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学年</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性质</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隶属关系</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行政区域</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务管理区域</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级学生人数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寄宿生人数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教职员工人数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学段</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为必填项。
+2.有下拉选项的请按照下拉内容选择。
+3.填入的学校名称要在"学校管理里的学校添加"功能模块里存在。
+4.下面数据为示例数据，填加正式数据时请删除示例数据。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +550,45 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -290,7 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,14 +640,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -722,199 +1052,149 @@
     <col min="11" max="11" width="9.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.875" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9" style="2"/>
-    <col min="21" max="22" width="7.125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="6.875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.75" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="10.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9" style="2"/>
+    <col min="20" max="20" width="7.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.25" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:23" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="2">
-        <v>50</v>
-      </c>
-      <c r="W2" s="2">
-        <v>20</v>
-      </c>
-      <c r="X2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>2019</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H3" s="2">
         <v>13918443978</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2">
         <v>13918443978</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2">
         <v>13918443978</v>
@@ -931,64 +1211,61 @@
       <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="2">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>29</v>
+      <c r="Q3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="U3" s="2">
+        <v>50</v>
       </c>
       <c r="V3" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="W3" s="2">
-        <v>30</v>
-      </c>
-      <c r="X3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>2019</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H4" s="2">
         <v>13918443978</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2">
         <v>13918443978</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2">
         <v>13918443978</v>
@@ -1005,138 +1282,132 @@
       <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="Q4" s="2">
-        <v>2</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>29</v>
+      <c r="Q4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="U4" s="2">
+        <v>60</v>
       </c>
       <c r="V4" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2">
-        <v>40</v>
-      </c>
-      <c r="X4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>2019</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="2">
         <v>70</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3</v>
-      </c>
-      <c r="O5" s="2">
-        <v>3</v>
-      </c>
-      <c r="P5" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>3</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="V5" s="2">
         <v>40</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="2">
-        <v>80</v>
-      </c>
       <c r="W5" s="2">
-        <v>50</v>
-      </c>
-      <c r="X5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>13918443978</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2">
         <v>13918443978</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2">
         <v>13918443978</v>
@@ -1153,64 +1424,61 @@
       <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6" s="2">
-        <v>3</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>40</v>
+      <c r="Q6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="U6" s="2">
+        <v>80</v>
       </c>
       <c r="V6" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2">
-        <v>60</v>
-      </c>
-      <c r="X6" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H7" s="2">
         <v>13918443978</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J7" s="2">
         <v>13918443978</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2">
         <v>13918443978</v>
@@ -1227,138 +1495,132 @@
       <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="Q7" s="2">
-        <v>3</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>40</v>
+      <c r="Q7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U7" s="2">
+        <v>90</v>
       </c>
       <c r="V7" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W7" s="2">
-        <v>70</v>
-      </c>
-      <c r="X7" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>2019</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="2">
+        <v>100</v>
+      </c>
+      <c r="V8" s="2">
         <v>70</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3</v>
-      </c>
-      <c r="O8" s="2">
-        <v>3</v>
-      </c>
-      <c r="P8" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>3</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="2">
-        <v>110</v>
-      </c>
       <c r="W8" s="2">
-        <v>80</v>
-      </c>
-      <c r="X8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>2019</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H9" s="2">
         <v>13918443978</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2">
         <v>13918443978</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2">
         <v>13918443978</v>
@@ -1375,64 +1637,61 @@
       <c r="P9" s="2">
         <v>3</v>
       </c>
-      <c r="Q9" s="2">
-        <v>3</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>40</v>
+      <c r="Q9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U9" s="2">
+        <v>110</v>
       </c>
       <c r="V9" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2">
-        <v>90</v>
-      </c>
-      <c r="X9" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>2019</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H10" s="2">
         <v>13918443978</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2">
         <v>13918443978</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2">
         <v>13918443978</v>
@@ -1449,138 +1708,132 @@
       <c r="P10" s="2">
         <v>3</v>
       </c>
-      <c r="Q10" s="2">
-        <v>3</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>40</v>
+      <c r="Q10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U10" s="2">
+        <v>120</v>
       </c>
       <c r="V10" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="W10" s="2">
-        <v>100</v>
-      </c>
-      <c r="X10" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>2019</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>13918443978</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J11" s="2">
         <v>13918443978</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2">
         <v>13918443978</v>
       </c>
       <c r="M11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>4</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U11" s="2">
+        <v>130</v>
       </c>
       <c r="V11" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="W11" s="2">
-        <v>101</v>
-      </c>
-      <c r="X11" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
         <v>2019</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="2">
         <v>13918443978</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2">
         <v>13918443978</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2">
         <v>13918443978</v>
@@ -1597,64 +1850,61 @@
       <c r="P12" s="2">
         <v>4</v>
       </c>
-      <c r="Q12" s="2">
-        <v>4</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>55</v>
+      <c r="Q12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U12" s="2">
+        <v>140</v>
       </c>
       <c r="V12" s="2">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="W12" s="2">
-        <v>102</v>
-      </c>
-      <c r="X12" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>2019</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H13" s="2">
         <v>13918443978</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2">
         <v>13918443978</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2">
         <v>13918443978</v>
@@ -1671,138 +1921,132 @@
       <c r="P13" s="2">
         <v>4</v>
       </c>
-      <c r="Q13" s="2">
-        <v>4</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>55</v>
+      <c r="Q13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U13" s="2">
+        <v>150</v>
       </c>
       <c r="V13" s="2">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="W13" s="2">
-        <v>103</v>
-      </c>
-      <c r="X13" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>2019</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4</v>
+      </c>
+      <c r="P14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M14" s="2">
-        <v>5</v>
-      </c>
-      <c r="N14" s="2">
-        <v>5</v>
-      </c>
-      <c r="O14" s="2">
-        <v>5</v>
-      </c>
-      <c r="P14" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>5</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>55</v>
+      <c r="R14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U14" s="2">
+        <v>160</v>
       </c>
       <c r="V14" s="2">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="W14" s="2">
-        <v>104</v>
-      </c>
-      <c r="X14" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>2019</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H15" s="2">
         <v>13918443978</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J15" s="2">
         <v>13918443978</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2">
         <v>13918443978</v>
@@ -1819,64 +2063,61 @@
       <c r="P15" s="2">
         <v>5</v>
       </c>
-      <c r="Q15" s="2">
-        <v>5</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>55</v>
+      <c r="Q15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="U15" s="2">
+        <v>170</v>
       </c>
       <c r="V15" s="2">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="W15" s="2">
-        <v>105</v>
-      </c>
-      <c r="X15" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>2019</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H16" s="2">
         <v>13918443978</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J16" s="2">
         <v>13918443978</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L16" s="2">
         <v>13918443978</v>
@@ -1893,51 +2134,122 @@
       <c r="P16" s="2">
         <v>5</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="2">
+        <v>180</v>
+      </c>
+      <c r="V16" s="2">
+        <v>105</v>
+      </c>
+      <c r="W16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M17" s="2">
         <v>5</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16" s="2" t="s">
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="2">
+      <c r="R17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="2">
         <v>190</v>
       </c>
-      <c r="W16" s="2">
+      <c r="V17" s="2">
         <v>106</v>
       </c>
-      <c r="X16" s="2">
+      <c r="W17" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:W1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
       <formula1>"托班,小班,中班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"看护点,六年制中学,其他,幼儿园,小学,初中,高中,职高,大学,十二年制,九年一贯制"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"高新区公办,锦溪镇公办,淀山湖镇公办,周庄镇公办,张浦镇公办,陆家镇公办,千灯镇公办,周市镇公办,花桥镇公办,巴城镇公办,开发区公办"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
-      <formula1>"幼儿园,小学,初中,高中,职高,大学"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"昆山市蓬朗社区卫生服务中心,昆山市震川社区卫生服务中心,昆山市江浦社区卫生服务中心,昆山市亭林社区卫生服务中心,昆山市巴城社区卫生服务中心,昆山市周市社区卫生服务中心,昆山市柏庐社区卫生服务中心,昆山市陆家社区卫生服务中心,昆山市花桥社区卫生服务中心,昆山市淀山湖社区卫生服务中心,昆山市张浦社区卫生服务中心,昆山市周庄社区卫生服务中心,昆山市千灯社区卫生服务中心,昆山市锦溪社区卫生服务中心,昆山市青阳社区卫生服务中心"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"巴城镇,周市镇,周庄镇,高新区,开发区,花桥镇,陆家镇,张浦镇,千灯镇,锦溪镇,淀山湖"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
+      <formula1>" 幼儿园,小学,初中,高中,职高,大学"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/学校信息导入模板.xlsx
+++ b/src/main/resources/static/excel/学校信息导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="63">
   <si>
     <t>主要领导姓名</t>
   </si>
@@ -314,31 +314,6 @@
         <charset val="134"/>
       </rPr>
       <t>业务管理区域</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2F2F2F"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年级学生人数</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -505,6 +480,78 @@
 2.有下拉选项的请按照下拉内容选择。
 3.填入的学校名称要在"学校管理里的学校添加"功能模块里存在。
 4.下面数据为示例数据，填加正式数据时请删除示例数据。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淀山湖镇公办</t>
+  </si>
+  <si>
+    <t>十二年制</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生人数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卫生保健人员</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -513,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +636,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -643,9 +715,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1031,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1054,19 +1126,19 @@
     <col min="13" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.875" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="2"/>
-    <col min="20" max="20" width="7.125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.25" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="16" max="17" width="8.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="2"/>
+    <col min="21" max="21" width="7.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="95.25" customHeight="1">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="95.25" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1090,8 +1162,9 @@
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
+      <c r="X1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="30">
+    <row r="2" spans="1:24" ht="30">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1141,28 +1214,31 @@
         <v>8</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>51</v>
+      <c r="X2" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1181,20 +1257,20 @@
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
+      <c r="G3" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H3" s="2">
         <v>13918443978</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2">
         <v>13918443978</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2">
         <v>13918443978</v>
@@ -1211,29 +1287,32 @@
       <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>50</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>20</v>
       </c>
-      <c r="W3" s="2">
-        <v>3</v>
+      <c r="X3" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,20 +1331,20 @@
       <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>56</v>
+      <c r="G4" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="2">
         <v>13918443978</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2">
         <v>13918443978</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2">
         <v>13918443978</v>
@@ -1282,29 +1361,32 @@
       <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>60</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <v>30</v>
       </c>
-      <c r="W4" s="2">
-        <v>4</v>
+      <c r="X4" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1323,20 +1405,20 @@
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>56</v>
+      <c r="G5" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H5" s="2">
         <v>13918443978</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2">
         <v>13918443978</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="2">
         <v>13918443978</v>
@@ -1353,29 +1435,32 @@
       <c r="P5" s="2">
         <v>2</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="Q5" s="2">
+        <v>5</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>70</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <v>40</v>
       </c>
-      <c r="W5" s="2">
-        <v>5</v>
+      <c r="X5" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1394,59 +1479,62 @@
       <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3</v>
-      </c>
-      <c r="O6" s="2">
-        <v>3</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>80</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <v>50</v>
       </c>
-      <c r="W6" s="2">
-        <v>6</v>
+      <c r="X6" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1465,59 +1553,62 @@
       <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7</v>
+      </c>
+      <c r="R7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>90</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>60</v>
       </c>
-      <c r="W7" s="2">
-        <v>7</v>
+      <c r="X7" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1525,7 +1616,7 @@
         <v>2019</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
@@ -1536,59 +1627,62 @@
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>8</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3</v>
-      </c>
-      <c r="O8" s="2">
-        <v>3</v>
-      </c>
-      <c r="P8" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>100</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>70</v>
       </c>
-      <c r="W8" s="2">
-        <v>8</v>
+      <c r="X8" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1607,59 +1701,62 @@
       <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>9</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2">
-        <v>3</v>
-      </c>
-      <c r="O9" s="2">
-        <v>3</v>
-      </c>
-      <c r="P9" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>110</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>80</v>
       </c>
-      <c r="W9" s="2">
-        <v>9</v>
+      <c r="X9" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1678,59 +1775,62 @@
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>10</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2">
-        <v>3</v>
-      </c>
-      <c r="O10" s="2">
-        <v>3</v>
-      </c>
-      <c r="P10" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>120</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>90</v>
       </c>
-      <c r="W10" s="2">
-        <v>10</v>
+      <c r="X10" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,59 +1849,62 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="2">
+        <v>13918443978</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>11</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="2">
-        <v>13918443978</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3</v>
-      </c>
-      <c r="N11" s="2">
-        <v>3</v>
-      </c>
-      <c r="O11" s="2">
-        <v>3</v>
-      </c>
-      <c r="P11" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>130</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>100</v>
       </c>
-      <c r="W11" s="2">
-        <v>11</v>
+      <c r="X11" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1820,20 +1923,20 @@
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>56</v>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H12" s="2">
         <v>13918443978</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2">
         <v>13918443978</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="2">
         <v>13918443978</v>
@@ -1850,29 +1953,32 @@
       <c r="P12" s="2">
         <v>4</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="Q12" s="2">
+        <v>12</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>140</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>101</v>
       </c>
-      <c r="W12" s="2">
-        <v>12</v>
+      <c r="X12" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1891,20 +1997,20 @@
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>56</v>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H13" s="2">
         <v>13918443978</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="2">
         <v>13918443978</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="2">
         <v>13918443978</v>
@@ -1921,29 +2027,32 @@
       <c r="P13" s="2">
         <v>4</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="Q13" s="2">
+        <v>13</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>150</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <v>102</v>
       </c>
-      <c r="W13" s="2">
-        <v>13</v>
+      <c r="X13" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1962,20 +2071,20 @@
       <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>56</v>
+      <c r="G14" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="2">
         <v>13918443978</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="2">
         <v>13918443978</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="2">
         <v>13918443978</v>
@@ -1992,29 +2101,32 @@
       <c r="P14" s="2">
         <v>4</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="Q14" s="2">
+        <v>14</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <v>160</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <v>103</v>
       </c>
-      <c r="W14" s="2">
-        <v>14</v>
+      <c r="X14" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,20 +2145,20 @@
       <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>56</v>
+      <c r="G15" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H15" s="2">
         <v>13918443978</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="2">
         <v>13918443978</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="2">
         <v>13918443978</v>
@@ -2063,29 +2175,32 @@
       <c r="P15" s="2">
         <v>5</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="Q15" s="2">
+        <v>15</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <v>170</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <v>104</v>
       </c>
-      <c r="W15" s="2">
-        <v>15</v>
+      <c r="X15" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2104,20 +2219,20 @@
       <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>56</v>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H16" s="2">
         <v>13918443978</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="2">
         <v>13918443978</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" s="2">
         <v>13918443978</v>
@@ -2134,29 +2249,32 @@
       <c r="P16" s="2">
         <v>5</v>
       </c>
-      <c r="Q16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R16" s="2" t="s">
+      <c r="Q16" s="2">
+        <v>16</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>180</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <v>105</v>
       </c>
-      <c r="W16" s="2">
-        <v>16</v>
+      <c r="X16" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2175,20 +2293,20 @@
       <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>56</v>
+      <c r="G17" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="2">
         <v>13918443978</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2">
         <v>13918443978</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="2">
         <v>13918443978</v>
@@ -2205,26 +2323,29 @@
       <c r="P17" s="2">
         <v>5</v>
       </c>
-      <c r="Q17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="Q17" s="2">
+        <v>17</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <v>190</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
         <v>106</v>
       </c>
-      <c r="W17" s="2">
-        <v>17</v>
+      <c r="X17" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2234,13 +2355,13 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
-      <formula1>"托班,小班,中班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
+      <formula1>" 幼儿园,小学,初中,高中,职高,大学"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+      <formula1>"托班,小班,中班,大班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"看护点,六年制中学,其他,幼儿园,小学,初中,高中,职高,大学,十二年制,九年一贯制"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"高新区公办,锦溪镇公办,淀山湖镇公办,周庄镇公办,张浦镇公办,陆家镇公办,千灯镇公办,周市镇公办,花桥镇公办,巴城镇公办,开发区公办"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"昆山市蓬朗社区卫生服务中心,昆山市震川社区卫生服务中心,昆山市江浦社区卫生服务中心,昆山市亭林社区卫生服务中心,昆山市巴城社区卫生服务中心,昆山市周市社区卫生服务中心,昆山市柏庐社区卫生服务中心,昆山市陆家社区卫生服务中心,昆山市花桥社区卫生服务中心,昆山市淀山湖社区卫生服务中心,昆山市张浦社区卫生服务中心,昆山市周庄社区卫生服务中心,昆山市千灯社区卫生服务中心,昆山市锦溪社区卫生服务中心,昆山市青阳社区卫生服务中心"</formula1>
@@ -2248,8 +2369,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"巴城镇,周市镇,周庄镇,高新区,开发区,花桥镇,陆家镇,张浦镇,千灯镇,锦溪镇,淀山湖"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
-      <formula1>" 幼儿园,小学,初中,高中,职高,大学"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"教育局直属,民办,私立,张浦镇公办,周庄镇公办,淀山湖镇公办,锦溪镇公办,高新区公办,民工子弟学,开发区公办,巴城镇公办,花桥镇公办,周市镇公办,千灯镇公办,陆家镇公办"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/学校信息导入模板.xlsx
+++ b/src/main/resources/static/excel/学校信息导入模板.xlsx
@@ -696,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1105,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1126,43 +1123,42 @@
     <col min="13" max="13" width="9" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="8.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.875" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9" style="2"/>
-    <col min="21" max="21" width="7.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.25" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="2" customWidth="1"/>
+    <col min="16" max="18" width="8.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="2"/>
+    <col min="22" max="22" width="7.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.25" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
     </row>
     <row r="2" spans="1:24" ht="30">
       <c r="A2" s="5" t="s">
@@ -1217,25 +1213,25 @@
         <v>50</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1290,26 +1286,26 @@
       <c r="Q3" s="2">
         <v>3</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>50</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>20</v>
-      </c>
-      <c r="X3" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1364,26 +1360,26 @@
       <c r="Q4" s="2">
         <v>4</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <v>60</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>30</v>
-      </c>
-      <c r="X4" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1438,26 +1434,26 @@
       <c r="Q5" s="2">
         <v>5</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <v>70</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>40</v>
-      </c>
-      <c r="X5" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1512,26 +1508,26 @@
       <c r="Q6" s="2">
         <v>6</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <v>80</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <v>50</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1586,26 +1582,26 @@
       <c r="Q7" s="2">
         <v>7</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>90</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>60</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1660,26 +1656,26 @@
       <c r="Q8" s="2">
         <v>8</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>100</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <v>70</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1734,26 +1730,26 @@
       <c r="Q9" s="2">
         <v>9</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>110</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>80</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1808,26 +1804,26 @@
       <c r="Q10" s="2">
         <v>10</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>120</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <v>90</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1882,26 +1878,26 @@
       <c r="Q11" s="2">
         <v>11</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>130</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <v>100</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1956,26 +1952,26 @@
       <c r="Q12" s="2">
         <v>12</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>140</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>101</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -2030,26 +2026,26 @@
       <c r="Q13" s="2">
         <v>13</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <v>150</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="2">
         <v>102</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -2104,26 +2100,26 @@
       <c r="Q14" s="2">
         <v>14</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <v>160</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="2">
         <v>103</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2178,26 +2174,26 @@
       <c r="Q15" s="2">
         <v>15</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <v>170</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="2">
         <v>104</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2252,26 +2248,26 @@
       <c r="Q16" s="2">
         <v>16</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <v>180</v>
       </c>
-      <c r="W16" s="2">
+      <c r="X16" s="2">
         <v>105</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2326,38 +2322,38 @@
       <c r="Q17" s="2">
         <v>17</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
         <v>190</v>
       </c>
-      <c r="W17" s="2">
+      <c r="X17" s="2">
         <v>106</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
       <formula1>" 幼儿园,小学,初中,高中,职高,大学"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"托班,小班,中班,大班,一年级,二年级,三年级,四年级,五年级,六年级"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
@@ -2370,7 +2366,7 @@
       <formula1>"巴城镇,周市镇,周庄镇,高新区,开发区,花桥镇,陆家镇,张浦镇,千灯镇,锦溪镇,淀山湖"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"教育局直属,民办,私立,张浦镇公办,周庄镇公办,淀山湖镇公办,锦溪镇公办,高新区公办,民工子弟学,开发区公办,巴城镇公办,花桥镇公办,周市镇公办,千灯镇公办,陆家镇公办"</formula1>
+      <formula1>"教育局直属,民办,私立,公办民营,民工子弟学,开发区公办,巴城镇公办,花桥镇公办,周市镇公办,千灯镇公办,陆家镇公办,张浦镇公办,周庄镇公办,淀山湖镇公办,锦溪镇公办,高新区公办 "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
